--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rf88e7f5601e34d54"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R03aeec9910cc46ba"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R03aeec9910cc46ba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rc030024247e34627"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rc030024247e34627"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R2b23ade3c9aa4ad3"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R2b23ade3c9aa4ad3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R2cd2ec2763114048"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -28,24 +28,24 @@
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="FFFFFF"/>
+      <x:color rgb="FFFFFFFF"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
@@ -58,13 +58,13 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="4472C4"/>
+        <x:fgColor rgb="FF4472C4"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFFF00"/>
+        <x:fgColor rgb="FFFFFF00"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R2cd2ec2763114048"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rdf0f7a0658f54a72"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rdf0f7a0658f54a72"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R73489039437a470d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R73489039437a470d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R327b66f29de74d59"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R327b66f29de74d59"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R1764fe397d124edc"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R1764fe397d124edc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R740a48c474e046df"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R740a48c474e046df"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R61668f28381c410d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R61668f28381c410d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R2a9d82ab7313484f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R2a9d82ab7313484f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rdaac48c43cf7459d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rdaac48c43cf7459d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R0d5c7cf6f3fa41d1"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R0d5c7cf6f3fa41d1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rb361a91b73364666"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rb361a91b73364666"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R329907bcd1834d9b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R329907bcd1834d9b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rcf803e4bd16d483f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rcf803e4bd16d483f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R38f2db9f62bc4b9a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R38f2db9f62bc4b9a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R39a3bc645a4e4284"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R39a3bc645a4e4284"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rcce23698c7564f34"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rcce23698c7564f34"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rb34d16ab5d2b4393"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rb34d16ab5d2b4393"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R5b703813a8124cc3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R5b703813a8124cc3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R27b9af75294d409c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R27b9af75294d409c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rc4daa45e58f64b38"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rc4daa45e58f64b38"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rb4dc516663a6473e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rb4dc516663a6473e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R5029bd2db86c4371"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R5029bd2db86c4371"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rad2b5913c7bf4dc3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rad2b5913c7bf4dc3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R290ad481e9f54b2f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R290ad481e9f54b2f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R0c3b98617cdc4fd8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R0c3b98617cdc4fd8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R494dd6525d69413d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R494dd6525d69413d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R9f1bc12d2a3a449f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R9f1bc12d2a3a449f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R5994945b91934e78"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R5994945b91934e78"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R50439584c27c4e59"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R50439584c27c4e59"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rb1af6f72b6bc412c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rb1af6f72b6bc412c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R996552bcab9845f1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R996552bcab9845f1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rd4ada30101594a6b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rd4ada30101594a6b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rd6243d3e714f4bff"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rd6243d3e714f4bff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R665df77d64df43da"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R665df77d64df43da"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R4bbc530055434c1f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R4bbc530055434c1f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R4b5d3909b2604bea"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R4b5d3909b2604bea"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R24b49dfe79954854"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R24b49dfe79954854"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R128fc31c3a944831"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R128fc31c3a944831"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rd2b26821479c4166"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rd2b26821479c4166"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rb45e55b53a914364"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rb45e55b53a914364"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R67603413f2b744d5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/22_SumFormula.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="R67603413f2b744d5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SumFormula" sheetId="1" r:id="Rda0f29ff3dcf44bd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
